--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -41,9 +41,6 @@
     <t>วันที่ PO</t>
   </si>
   <si>
-    <t>Header Text ที่โยนมาจาก PR</t>
-  </si>
-  <si>
     <t>รหัสแหล่งงบประมาณ</t>
   </si>
   <si>
@@ -84,13 +81,23 @@
   </si>
   <si>
     <t>ถึงวันที่</t>
+  </si>
+  <si>
+    <t>ศูนย์</t>
+  </si>
+  <si>
+    <t>รายละเอียดการซื้อจ้าง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,23 +105,32 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,21 +189,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -195,6 +272,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,164 +543,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" style="23" customWidth="1"/>
+    <col min="5" max="8" width="25.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" style="10" customWidth="1"/>
+    <col min="10" max="12" width="25.54296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="20"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8 2018-02-20 09:37:39&amp;R&amp;8&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>รายงานการตรวจรับพัสดุประจำเดือน</t>
-  </si>
-  <si>
-    <t>ศุนย์</t>
   </si>
   <si>
     <t xml:space="preserve">วันที่ </t>
@@ -92,12 +89,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -132,6 +130,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0A0101"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,27 +144,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -201,7 +189,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -211,15 +198,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -229,39 +207,49 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -543,34 +531,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" style="23" customWidth="1"/>
-    <col min="5" max="8" width="25.54296875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" style="10" customWidth="1"/>
-    <col min="10" max="12" width="25.54296875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="25.54296875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="25.54296875" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="15" customWidth="1"/>
+    <col min="5" max="8" width="25.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="6" customWidth="1"/>
+    <col min="10" max="12" width="25.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.5" style="15" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="19"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -579,137 +567,126 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="19"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="19"/>
+      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="20"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="21" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="20"/>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="20"/>
+    <row r="6" spans="1:15" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_monthly_work_acceptance.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -74,9 +74,6 @@
     <t>รายงานการตรวจรับพัสดุประจำเดือน</t>
   </si>
   <si>
-    <t xml:space="preserve">วันที่ </t>
-  </si>
-  <si>
     <t>ถึงวันที่</t>
   </si>
   <si>
@@ -84,18 +81,35 @@
   </si>
   <si>
     <t>รายละเอียดการซื้อจ้าง</t>
+  </si>
+  <si>
+    <t>ประเภทผู้ขาย</t>
+  </si>
+  <si>
+    <t>ผู้ขาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จากวันที่ </t>
+  </si>
+  <si>
+    <t>เลขที่ใบรับสินค้า</t>
+  </si>
+  <si>
+    <t>ประเภทสินค้า</t>
+  </si>
+  <si>
+    <t>วันที่รับสินค้า</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,36 +126,48 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="16"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF0A0101"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -181,33 +207,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,40 +262,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -531,165 +561,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="15" customWidth="1"/>
-    <col min="5" max="8" width="25.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="6" customWidth="1"/>
-    <col min="10" max="12" width="25.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="25.5" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="14.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" style="4" customWidth="1"/>
+    <col min="5" max="8" width="25.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" style="3" customWidth="1"/>
+    <col min="10" max="12" width="25.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" style="25" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.54296875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="12"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="12"/>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="14" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="13"/>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:15" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
